--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>181.6783934517547</v>
+        <v>225.2311921136996</v>
       </c>
       <c r="R2">
-        <v>1635.105541065792</v>
+        <v>2027.080729023296</v>
       </c>
       <c r="S2">
-        <v>0.09323935336965655</v>
+        <v>0.1220315863922787</v>
       </c>
       <c r="T2">
-        <v>0.09323935336965652</v>
+        <v>0.1220315863922787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>191.495756694768</v>
+        <v>243.696197544242</v>
       </c>
       <c r="R3">
-        <v>1723.461810252912</v>
+        <v>2193.265777898178</v>
       </c>
       <c r="S3">
-        <v>0.09827773236003812</v>
+        <v>0.1320360350846855</v>
       </c>
       <c r="T3">
-        <v>0.0982777323600381</v>
+        <v>0.1320360350846855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>123.7233214399307</v>
+        <v>105.0542356949651</v>
       </c>
       <c r="R4">
-        <v>1113.509892959376</v>
+        <v>945.488121254686</v>
       </c>
       <c r="S4">
-        <v>0.0634961718266663</v>
+        <v>0.05691900361923794</v>
       </c>
       <c r="T4">
-        <v>0.0634961718266663</v>
+        <v>0.05691900361923795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>66.28985130298666</v>
+        <v>82.49619486455488</v>
       </c>
       <c r="R5">
-        <v>596.60866172688</v>
+        <v>742.465753780994</v>
       </c>
       <c r="S5">
-        <v>0.03402068211321178</v>
+        <v>0.04469692424114226</v>
       </c>
       <c r="T5">
-        <v>0.03402068211321177</v>
+        <v>0.04469692424114226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>96.50109914652268</v>
+        <v>98.49927953590934</v>
       </c>
       <c r="R6">
-        <v>868.509892318704</v>
+        <v>886.4935158231841</v>
       </c>
       <c r="S6">
-        <v>0.04952542739361167</v>
+        <v>0.05336748976667348</v>
       </c>
       <c r="T6">
-        <v>0.04952542739361167</v>
+        <v>0.05336748976667348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>110.399504733504</v>
+        <v>107.548109803008</v>
       </c>
       <c r="R7">
-        <v>993.595542601536</v>
+        <v>967.932988227072</v>
       </c>
       <c r="S7">
-        <v>0.05665824228248554</v>
+        <v>0.05827019929871326</v>
       </c>
       <c r="T7">
-        <v>0.05665824228248553</v>
+        <v>0.05827019929871325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>116.365167568944</v>
@@ -948,10 +948,10 @@
         <v>1047.286508120496</v>
       </c>
       <c r="S8">
-        <v>0.05971988618317055</v>
+        <v>0.06304733312459281</v>
       </c>
       <c r="T8">
-        <v>0.05971988618317054</v>
+        <v>0.06304733312459279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>75.18226659451199</v>
+        <v>50.16349809172799</v>
       </c>
       <c r="R9">
-        <v>676.640399350608</v>
+        <v>451.471482825552</v>
       </c>
       <c r="S9">
-        <v>0.03858436762321407</v>
+        <v>0.02717887870534995</v>
       </c>
       <c r="T9">
-        <v>0.03858436762321407</v>
+        <v>0.02717887870534995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>40.28198738255999</v>
+        <v>39.392012004912</v>
       </c>
       <c r="R10">
-        <v>362.53788644304</v>
+        <v>354.528108044208</v>
       </c>
       <c r="S10">
-        <v>0.02067315977775828</v>
+        <v>0.02134282410456021</v>
       </c>
       <c r="T10">
-        <v>0.02067315977775828</v>
+        <v>0.02134282410456021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>58.640289302448</v>
+        <v>47.033500252032</v>
       </c>
       <c r="R11">
-        <v>527.7626037220319</v>
+        <v>423.301502268288</v>
       </c>
       <c r="S11">
-        <v>0.03009484260670643</v>
+        <v>0.02548302744159741</v>
       </c>
       <c r="T11">
-        <v>0.03009484260670642</v>
+        <v>0.02548302744159741</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>57.50558110951022</v>
+        <v>150.0233869339947</v>
       </c>
       <c r="R12">
-        <v>517.550229985592</v>
+        <v>1350.210482405952</v>
       </c>
       <c r="S12">
-        <v>0.02951249785914091</v>
+        <v>0.08128355460755242</v>
       </c>
       <c r="T12">
-        <v>0.0295124978591409</v>
+        <v>0.08128355460755239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>60.613012695218</v>
+        <v>162.322672074954</v>
       </c>
       <c r="R13">
-        <v>545.5171142569619</v>
+        <v>1460.904048674586</v>
       </c>
       <c r="S13">
-        <v>0.03110726598862011</v>
+        <v>0.08794737973389002</v>
       </c>
       <c r="T13">
-        <v>0.0311072659886201</v>
+        <v>0.08794737973389001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>39.16140692916955</v>
+        <v>69.97517574193132</v>
       </c>
       <c r="R14">
-        <v>352.452662362526</v>
+        <v>629.776581677382</v>
       </c>
       <c r="S14">
-        <v>0.02009806554179705</v>
+        <v>0.03791296233763079</v>
       </c>
       <c r="T14">
-        <v>0.02009806554179705</v>
+        <v>0.03791296233763079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>20.98233228737555</v>
+        <v>54.94957624030866</v>
       </c>
       <c r="R15">
-        <v>188.84099058638</v>
+        <v>494.546186162778</v>
       </c>
       <c r="S15">
-        <v>0.01076836412680899</v>
+        <v>0.02977200403398508</v>
       </c>
       <c r="T15">
-        <v>0.01076836412680898</v>
+        <v>0.02977200403398508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>30.54491884639489</v>
+        <v>65.60900995931199</v>
       </c>
       <c r="R16">
-        <v>274.904269617554</v>
+        <v>590.481089633808</v>
       </c>
       <c r="S16">
-        <v>0.01567598891567031</v>
+        <v>0.03554734800195853</v>
       </c>
       <c r="T16">
-        <v>0.01567598891567031</v>
+        <v>0.03554734800195853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>187.0384875635533</v>
+        <v>9.325061436092446</v>
       </c>
       <c r="R17">
-        <v>1683.34638807198</v>
+        <v>83.925552924832</v>
       </c>
       <c r="S17">
-        <v>0.0959902127288204</v>
+        <v>0.0050523732062714</v>
       </c>
       <c r="T17">
-        <v>0.09599021272882037</v>
+        <v>0.005052373206271399</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>197.145494445045</v>
+        <v>10.089552839089</v>
       </c>
       <c r="R18">
-        <v>1774.309450005405</v>
+        <v>90.805975551801</v>
       </c>
       <c r="S18">
-        <v>0.1011772400259503</v>
+        <v>0.005466579150907316</v>
       </c>
       <c r="T18">
-        <v>0.1011772400259502</v>
+        <v>0.005466579150907314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>127.3735554283683</v>
+        <v>4.349473946231889</v>
       </c>
       <c r="R19">
-        <v>1146.361998855315</v>
+        <v>39.145265516087</v>
       </c>
       <c r="S19">
-        <v>0.06536951213017493</v>
+        <v>0.002356570600410538</v>
       </c>
       <c r="T19">
-        <v>0.06536951213017492</v>
+        <v>0.002356570600410538</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>68.24561409288333</v>
+        <v>3.415521971608111</v>
       </c>
       <c r="R20">
-        <v>614.2105268359498</v>
+        <v>30.739697744473</v>
       </c>
       <c r="S20">
-        <v>0.03502440112684795</v>
+        <v>0.001850549920024464</v>
       </c>
       <c r="T20">
-        <v>0.03502440112684795</v>
+        <v>0.001850549920024464</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.746216</v>
+      </c>
+      <c r="N21">
+        <v>209.238648</v>
+      </c>
+      <c r="O21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q21">
+        <v>4.078084498258668</v>
+      </c>
+      <c r="R21">
+        <v>36.702760484328</v>
+      </c>
+      <c r="S21">
+        <v>0.002209530199143299</v>
+      </c>
+      <c r="T21">
+        <v>0.002209530199143299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N22">
+        <v>478.450912</v>
+      </c>
+      <c r="O22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q22">
+        <v>58.49104928169956</v>
+      </c>
+      <c r="R22">
+        <v>526.419443535296</v>
+      </c>
+      <c r="S22">
+        <v>0.03169079498541002</v>
+      </c>
+      <c r="T22">
+        <v>0.03169079498541001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q23">
+        <v>63.286288930742</v>
+      </c>
+      <c r="R23">
+        <v>569.5766003766779</v>
+      </c>
+      <c r="S23">
+        <v>0.03428888406895224</v>
+      </c>
+      <c r="T23">
+        <v>0.03428888406895222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N24">
+        <v>223.163117</v>
+      </c>
+      <c r="O24">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P24">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q24">
+        <v>27.28188942046511</v>
+      </c>
+      <c r="R24">
+        <v>245.537004784186</v>
+      </c>
+      <c r="S24">
+        <v>0.01478148836541891</v>
+      </c>
+      <c r="T24">
+        <v>0.01478148836541891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>86.95798233333333</v>
-      </c>
-      <c r="N21">
-        <v>260.873947</v>
-      </c>
-      <c r="O21">
-        <v>0.1462828449356384</v>
-      </c>
-      <c r="P21">
-        <v>0.1462828449356383</v>
-      </c>
-      <c r="Q21">
-        <v>99.34819044609833</v>
-      </c>
-      <c r="R21">
-        <v>894.1337140148848</v>
-      </c>
-      <c r="S21">
-        <v>0.05098658601964997</v>
-      </c>
-      <c r="T21">
-        <v>0.05098658601964996</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N25">
+        <v>175.243843</v>
+      </c>
+      <c r="O25">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P25">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q25">
+        <v>21.42371557905489</v>
+      </c>
+      <c r="R25">
+        <v>192.813440211494</v>
+      </c>
+      <c r="S25">
+        <v>0.01160749527627273</v>
+      </c>
+      <c r="T25">
+        <v>0.01160749527627273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>69.746216</v>
+      </c>
+      <c r="N26">
+        <v>209.238648</v>
+      </c>
+      <c r="O26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q26">
+        <v>25.57961070790934</v>
+      </c>
+      <c r="R26">
+        <v>230.216496371184</v>
+      </c>
+      <c r="S26">
+        <v>0.01385918373334059</v>
+      </c>
+      <c r="T26">
+        <v>0.01385918373334059</v>
       </c>
     </row>
   </sheetData>
